--- a/src/main/resources/excel/语法官汇报模板.xlsx
+++ b/src/main/resources/excel/语法官汇报模板.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24624\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1336A3-F1E1-47CA-A118-F766BEB9D3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015F09F3-A7A1-4713-A621-4F80E8255B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,20 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">汇报人:XXX </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语法官汇报报告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>环节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,6 +55,22 @@
   </si>
   <si>
     <t>好规划遇见未来生活，富思维创造美好人生!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美好人生第200次会议语法官汇报报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拟人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日一词:升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇报人:Nick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -133,7 +141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -156,11 +164,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -175,6 +220,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -457,253 +511,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="82.5" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="82.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
+    <row r="35" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A4:D4"/>
     <mergeCell ref="A3:D3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B3 B5:B1048576" xr:uid="{C3578AFC-E13C-45FD-9A8D-8C027CEEB528}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B1048576 B1:B2 B4" xr:uid="{C3578AFC-E13C-45FD-9A8D-8C027CEEB528}">
       <formula1>"嘉宾介绍,即兴开场,官员宣言,即兴演讲,备稿演讲,工作坊,圆桌论坛,即兴点评,备稿点评,官员汇报"</formula1>
     </dataValidation>
   </dataValidations>
